--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daido\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Java\Project\quiztest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D0313D1-1A48-4897-8CB3-3EA98D545951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAE30C-4E50-44BD-81E2-8430F005F52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{6412BA49-4252-4D9C-B9E3-AE9F9D93D035}"/>
+    <workbookView xWindow="30612" yWindow="2052" windowWidth="23256" windowHeight="13176" xr2:uid="{6412BA49-4252-4D9C-B9E3-AE9F9D93D035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="432">
   <si>
     <t>Content (Cột 0)</t>
   </si>
@@ -57,32 +57,1286 @@
     <t>Correct Answer (Cột 6)</t>
   </si>
   <si>
-    <t>Câu hỏi 1</t>
-  </si>
-  <si>
     <t>EASY</t>
   </si>
   <si>
-    <t>Đáp án A</t>
-  </si>
-  <si>
-    <t>Đáp án B</t>
-  </si>
-  <si>
-    <t>Đáp án C</t>
-  </si>
-  <si>
-    <t>Đáp án D</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Câu hỏi 2: Trong soạn thảo Winword, công dụng của tố hợp Ctrl - F là:</t>
+  </si>
+  <si>
+    <t>Chức năng tim kiểm trong soan thảo</t>
+  </si>
+  <si>
+    <t>Tạo tệp văn bản mới</t>
+  </si>
+  <si>
+    <t>Lưu tếp văn bản vào đĩa</t>
+  </si>
+  <si>
+    <t>Định dạng trang</t>
+  </si>
+  <si>
+    <t>Câu hỏi 3:Khi đang làm việc với PowerPoint, muốn thiết lập lại bố cục (trình bày về văn bản, hình ảnh, biểu đồ,..) của Slide, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>File - Slide Layout</t>
+  </si>
+  <si>
+    <t>Insert - Slide Layout</t>
+  </si>
+  <si>
+    <t>Format - Slide Layout</t>
+  </si>
+  <si>
+    <t>View - Slide Layout</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Câu hỏi 47: Thông thường trong quy trình phát triển phần mềm, hoạt động nào được tiến hành đầu tiên?</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>Kiểm thử phần mềm</t>
+  </si>
+  <si>
+    <t>Đặc tả phần mềm</t>
+  </si>
+  <si>
+    <t>Phân tích thiết kế và phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>Bảo trì phần mềm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Câu hỏi 4: Hãy chỉ ra các dịch vụ lưu trữ đám máy điển hình</t>
+  </si>
+  <si>
+    <t>Yahoo, Bing</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter</t>
+  </si>
+  <si>
+    <t>Mediafire, Google Drive</t>
+  </si>
+  <si>
+    <t>Cả 3 phương án còn lai đều đúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 5: Cổng VGA dùng để kết nói máy tinh với:</t>
+  </si>
+  <si>
+    <t>Chuột</t>
+  </si>
+  <si>
+    <t>Máy in</t>
+  </si>
+  <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t>Bàn phím</t>
+  </si>
+  <si>
+    <t>Câu hỏi 6: Sau khi thực hiện xong một lệnh, máy tính quay lại chu kỳ mới và bắt đầu từ:</t>
+  </si>
+  <si>
+    <t>Xử lý dữ liệu</t>
+  </si>
+  <si>
+    <t>Ghi dữ liệu</t>
+  </si>
+  <si>
+    <t>Nhận dữ liệu</t>
+  </si>
+  <si>
+    <t>Nhận lệnh</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Câu hỏi 7: Khi dùng Gmail, nêu để ý bạn sẽ thấy lời mời vào Google+, vậy Google+ là gi?</t>
+  </si>
+  <si>
+    <t>Là nơi chứa các quảng cáo của Google</t>
+  </si>
+  <si>
+    <t>Là một dịch vụ mail mới của Google</t>
+  </si>
+  <si>
+    <t>Là các dịch vụ cao cấp (có trả phí) của Google</t>
+  </si>
+  <si>
+    <t>Là một mạng xã hội kiểu Facebook</t>
+  </si>
+  <si>
+    <t>Câu hỏi 8: Trong khi làm việc với Word, tổ hợp phím tắt nào cho phép chọn tất cả văn bản đang soạn thảo:</t>
+  </si>
+  <si>
+    <t>Alt + F</t>
+  </si>
+  <si>
+    <t>Ctrl + A</t>
+  </si>
+  <si>
+    <t>Ctrl + F</t>
+  </si>
+  <si>
+    <t>Alt + A</t>
+  </si>
+  <si>
+    <t>Câu hỏi 9: Nguồn thu nhập chủ yếu của tập đoàn Facebook, Twitter là do</t>
+  </si>
+  <si>
+    <t>Được các nhà cung cấp kết nối Internet trả tiên vì đã giúp họ có thêm KH</t>
+  </si>
+  <si>
+    <t>Quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bán thông tin cá nhân của người dùng cho các công ty nghiên cứu thị trưởng</t>
+  </si>
+  <si>
+    <t>Bán các dữ liệu do người dùng tạo ra cho các công ty tìm kiểm như Google</t>
+  </si>
+  <si>
+    <t>Câu hỏi 10: Website là gi?</t>
+  </si>
+  <si>
+    <t>Tất cả các phương án còn lại đều sai</t>
+  </si>
+  <si>
+    <t>Là hình thức trao đổi thông tin thông qua hệ thống mạng máy tính</t>
+  </si>
+  <si>
+    <t>Là một ngôn ngữ siêu văn bản</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các thẻ đã được tạo ra từ MS Word, Excel, Ppt... rồi chuyển sang dạng HTML</t>
+  </si>
+  <si>
+    <t>Câu hỏi 11: Thành phần dùng để trao đổi dữ liệu giữa máy tinh và môi trường bên ngoài là:</t>
+  </si>
+  <si>
+    <t>Bộ nhớ</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Thiết bị ngoại vi</t>
+  </si>
+  <si>
+    <t>Vỏ máy và nguồn</t>
+  </si>
+  <si>
+    <t>Câu hỏi 12: Theo cầu trúc địa chỉ lpv4, có mấy lớp địa chỉ?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 13: Số nào sau đây là số thuộc hệ 2:</t>
+  </si>
+  <si>
+    <t>Câu hỏi 14: Trong chế độ tạo bảng (Table) của phần mèm Mocrosoft Word 2013, muốn tách một ô thành nhiều ô, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Thẻ Layout - Split Cells</t>
+  </si>
+  <si>
+    <t>Tabie - Merge Cells</t>
+  </si>
+  <si>
+    <t>Table – Cells</t>
+  </si>
+  <si>
+    <t>Toots - Split Cells</t>
+  </si>
+  <si>
+    <t>Câu hỏi 15: Chọn phương án có 3 dịnh dạng file văn bản:</t>
+  </si>
+  <si>
+    <t>EXE, BMP, FLV</t>
+  </si>
+  <si>
+    <t>PDF, JPG, FLV</t>
+  </si>
+  <si>
+    <t>DOCX. TXT, BMP</t>
+  </si>
+  <si>
+    <t>TXT, DOC, DOCX</t>
+  </si>
+  <si>
+    <t>Câu hỏi 16: Hai loại sâu (worm) chính là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key logger và Phần mềm gián điệp (Spyware)</t>
+  </si>
+  <si>
+    <t>Macro và Tệp tin (File)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dịch vụ mạng (Network Service) và Thư điện tử (Mass Mailing)</t>
+  </si>
+  <si>
+    <t>Biên dịch (Compiled) và Thông dịch (Interpreted)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 17: Đối với các hệ điều hành có giao diện đồ họa, người dùng thực hiện các lệnh như sau:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người dùng phải gõ trực tiếp các lệnh vào từ bàn phim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người dùng có thể dùng các thiết bị ngoại vi khác như màn hình, USB để thực hiện các lệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tất cả các phương án còn lại đều sai</t>
+  </si>
+  <si>
+    <t>Người dùng sử dụng chuột để chỉ ra các công việc thể hiện qua các biểu tượng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 18: Chuyến số 12 từ hệ 10 sang hệ 2</t>
+  </si>
+  <si>
+    <t>01100</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>Câu hỏi 19: Trong soạn thảo văn bản Word, muốn lưu hồ sơ với một tên khác, ta thực hiện</t>
+  </si>
+  <si>
+    <t>File - Save As</t>
+  </si>
+  <si>
+    <t>Window - Save</t>
+  </si>
+  <si>
+    <t>File - Save</t>
+  </si>
+  <si>
+    <t>Window - Save As</t>
+  </si>
+  <si>
+    <t>Câu hỏi 20: Trong khi soạn thảo email, nếu muốn gửi kèm file thì cần bấm vào nút nào?</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Fite/Save</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Câu hỏi 21: Mục đích của địa chỉ tên miền (DNS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dễ nhớ địa chỉ IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Để máy tính xử lý tên miền dễ xử lý hơn địa chỉ IP</t>
+  </si>
+  <si>
+    <t>Bù vào sự thiếu hụt địa chỉ IP</t>
+  </si>
+  <si>
+    <t>Tên miền đẹp hơn địa chỉ IP</t>
+  </si>
+  <si>
+    <t>Câu hỏi 22: Phần mềm phát triển ứng dụng là gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các phần mềm để tạo ra các phần mềm khác</t>
+  </si>
+  <si>
+    <t>  Là những phần mềm được thiết kế dựa trên những yêu cầu chung của nhiều người</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không có phương án nào đứng</t>
+  </si>
+  <si>
+    <t>Là các chương trình được thiết kể giúp người dùng sử dụng một cách hiêu quả hơn và hỗ trợ các công việc cá nhân</t>
+  </si>
+  <si>
+    <t>Câu hỏi 23: Trong chương trinh quản lý tệp và thư mục Windows Explorer, muốn xóa một tệp cần thực hiện các thao tác gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhấn chuột phải vào tệp cần xóa/ chọn Copy</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần xóa/ chon Delete</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần xoa/ chọn Paste</t>
+  </si>
+  <si>
+    <t>Nhấn chuộc phải vào tệp cần xóa/ chọn Rename</t>
+  </si>
+  <si>
+    <t>Câu hỏi 24: Cần ít nhất bao nhiêu bit để mã hóa được bảng chữ cái tiếng Anh (26 kí tự)?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 25: Phần mềm nguồn mở là gi?</t>
+  </si>
+  <si>
+    <t>Là các chương trình mà mã nguồn của nó được công bố rộng rãi và cho phép mọi người tiếp tục phát triển phần mềm đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các chương trình do người dùng tựphát triển</t>
+  </si>
+  <si>
+    <t>Là các chương trình được các tổ chức phi chính phủ phát trển</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các chương trình mà nhóm phát triển có thể thay đổi để đáp ứng yêu cầu mới của người dùng và môi trường</t>
+  </si>
+  <si>
+    <t>Câu hỏi 26: Ưu điểm của dịch vụ lưu trữ đám mây?</t>
+  </si>
+  <si>
+    <t>Cả 3 phương án còn lại đều đúng</t>
+  </si>
+  <si>
+    <t>Có thể truy cập ở mọi nơi có internet</t>
+  </si>
+  <si>
+    <t>Không còn lệ thuộc vào các thiết bị lưu trữ vật lý như đĩa nhớ, CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giảm thiều rùi ro mất mát, hư hỏng dữ liêu đôi khi xảy ra, nếu sử dụng các biện pháp lưu trữ truyền thống, như ổ cứng, ổ cứng di động USB, hay đĩa DVĐ, CD</t>
+  </si>
+  <si>
+    <t>Câu hỏi 27: Khối gồm các mạch chức năng để thực hiện các phép toán cơ sở như phép toán số học, phép toán logic, phép tạo mã là:</t>
+  </si>
+  <si>
+    <t>Control Unit (CU)</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Arthmetic Logic Unit (ALU)</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Câu hỏi 28: Chức năng chính của hệ điều hành?</t>
+  </si>
+  <si>
+    <t>Quản lí và điều phối các thiết bị của máy để phục vụ cho công việc xử lí</t>
+  </si>
+  <si>
+    <t>Tất cả các chức năng nêu ở 3 phương án còn lai</t>
+  </si>
+  <si>
+    <t>Quản lí thông tin bộ nhớ ngoài và quản lí cac tiến trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cung cấp môi trường giao tiếp với người dùng và cung cấp các tiện ích cơ </t>
+  </si>
+  <si>
+    <t>Câu hỏi 29: Byte đầu tiền của một địa chỉ IPv4 là 11000001. Vậy nó thuộc lớp nào?</t>
+  </si>
+  <si>
+    <t>Lớp D</t>
+  </si>
+  <si>
+    <t>Lớp E</t>
+  </si>
+  <si>
+    <t>Lớp C</t>
+  </si>
+  <si>
+    <t>Lớp A</t>
+  </si>
+  <si>
+    <t>Câu hỏi 30: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>  Trojan va Sâu (Worm) không có khả năng lây nhiễm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trojan và Sâu (Worm) có khả năng lây nhiễm</t>
+  </si>
+  <si>
+    <t>Trojan và Virut có khả năng lây nhiễm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virut và Sâu (Worm) có khả năng lây nhiễm</t>
+  </si>
+  <si>
+    <t>Câu hỏi 31: Khi đang làm việc với PowerPonit 2013, muốn thay đổi thiết kế themes của Slide, ta thực hiện</t>
+  </si>
+  <si>
+    <t>Insert - Slide Design</t>
+  </si>
+  <si>
+    <t>Design - Themes</t>
+  </si>
+  <si>
+    <t>Slide Show - Slide Design</t>
+  </si>
+  <si>
+    <t>Toots - Slide Design</t>
+  </si>
+  <si>
+    <t>Câu hỏi 32: Phần mềm ứng dụng là gì?</t>
+  </si>
+  <si>
+    <t>Là các phần mềm để tạo ra các phần mềm khác</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình cho phép người dùng thực hiện các công việc liên quan tới việc bảo trì máy tinh</t>
+  </si>
+  <si>
+    <t>Là các chương trình được thiết kế giúp người dùng sử dụng một các hiệu quả hơn và/hoặc hỗ trợ các công việc cá nhân</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình phổi hợp tất cả các hoạt động của các thiết bị phần cứng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 33: Những chức năng của CPU:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhận lệnh, giải mã lệnh và điều khiến các khối khác thực hiện lệnh</t>
+  </si>
+  <si>
+    <t>Sinh ra các tín hiệu địa chỉ để truy nhập bộ nhớ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tất cả các chức năng nêu trong 3 phương án còn lại</t>
+  </si>
+  <si>
+    <t>Thực hiện các phép tính số học, logic và các phép tính khác</t>
+  </si>
+  <si>
+    <t>Câu hỏi 34: Các lệnh máy phải chỉ ra các thông tin:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tất cả các thông tin nêu trong 3 phương án còn lại</t>
+  </si>
+  <si>
+    <t>  Nơi đặt dữ liệu của lệnh</t>
+  </si>
+  <si>
+    <t>Thao tác cần thực hiện</t>
+  </si>
+  <si>
+    <t>Nơi đặt kết quả xử tý</t>
+  </si>
+  <si>
+    <t>Câu hỏi 35: Trong chương trinh quản lý tệp và thư mục Windows Explorer, muốn đổi tên một tệp cần thực hiện các thao tác gì?</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần đổi tên/ chọn Rename</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần đổi tên/ chọn Copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhấn chuột phải vào tệp cần đổi tên/ chọn Paste</t>
+  </si>
+  <si>
+    <t>  Nhấn chuột phải vào tệp cần đổi tên/ chọn Delete</t>
+  </si>
+  <si>
+    <t>Câu hỏi 36: Chức năng của máy tính là:</t>
+  </si>
+  <si>
+    <t>Lưu trữ thông tin</t>
+  </si>
+  <si>
+    <t>Xử lý thông tin</t>
+  </si>
+  <si>
+    <t>Nhận thông tin vào</t>
+  </si>
+  <si>
+    <t>Tất cả các p/án đều đúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 37: Số nảo sau đây không thuộc hệ 16:</t>
+  </si>
+  <si>
+    <t>1234AB</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Câu hỏi 38: Phần mềm quảng cáo (Adware) thuộc vào loại nào?</t>
+  </si>
+  <si>
+    <t>Sâu (Worm)</t>
+  </si>
+  <si>
+    <t>Virut biên dich (Compiled virus)</t>
+  </si>
+  <si>
+    <t>Trojan</t>
+  </si>
+  <si>
+    <t>Virut</t>
+  </si>
+  <si>
+    <t>Câu hỏi 39: Chuyên số 50 sang hệ 16</t>
+  </si>
+  <si>
+    <t>1FA</t>
+  </si>
+  <si>
+    <t>Câu hỏi 40: Trang Web là</t>
+  </si>
+  <si>
+    <t>Trang siêu văn bản phối hợp giữa các văn bản thông thường với hình ảnh, âm thanh, video và cả các mối liên kết đên các trang siêu văn bản khác</t>
+  </si>
+  <si>
+    <t>Trang văn bản chứa văn bản, hình ảnh</t>
+  </si>
+  <si>
+    <t>Trang văn bản thông thường</t>
+  </si>
+  <si>
+    <t>Trang văn bản chứa các lên kết cơ sở dữ liệu ở bên trong nó</t>
+  </si>
+  <si>
+    <t>Câu hỏi 41: Chọn phương án có 3 định dạng file nén phố biến hiện nay:</t>
+  </si>
+  <si>
+    <t>DAT, GZIP, FLV</t>
+  </si>
+  <si>
+    <t>GZIP, ZIP, RAR</t>
+  </si>
+  <si>
+    <t>RAR, PPT, MP3</t>
+  </si>
+  <si>
+    <t>ZIP. WAV, JPG</t>
+  </si>
+  <si>
+    <t>Câu hỏi 42: Quyền sở hữu trí tuệ là gi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quyền sở hữu trí tuệ là quyền sở hữu đối với tải sản trí tuệ</t>
+  </si>
+  <si>
+    <t>Đây là quyền do Cục sở hữu trí tuệ giữ, tác giả của tài sản trí tuệ không có quyền này</t>
+  </si>
+  <si>
+    <t>Khi mua phần mềm vẻ dùng thì bạn có quyền sở hữu trí tuệ với phần mềm đó</t>
+  </si>
+  <si>
+    <t>Câu hỏi 43: Virut khởi động (Boot virus) là:</t>
+  </si>
+  <si>
+    <t>Một loại virut thông dịch (interpreted virus)</t>
+  </si>
+  <si>
+    <t>Một loại phần mềm gián điệp (spyware)</t>
+  </si>
+  <si>
+    <t>Một loai virut biên dịch (compled virus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Một loại sâu (worm)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 44: Một thao tác cơ bản với bộ nhớ là:</t>
+  </si>
+  <si>
+    <t>Ra dữ liệu</t>
+  </si>
+  <si>
+    <t>Đọc dữ liệu</t>
+  </si>
+  <si>
+    <t>Vào dữ liệu</t>
+  </si>
+  <si>
+    <t>Câu hỏi 45: Địa chỉ IPv4 có độ dải bao nhiêu byte?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 46: "WWW" trên địa chỉ trang web là:</t>
+  </si>
+  <si>
+    <t>Word Wed Wide</t>
+  </si>
+  <si>
+    <t>Worid Wide Wait</t>
+  </si>
+  <si>
+    <t>Word Wide Web</t>
+  </si>
+  <si>
+    <t>World Wide Web</t>
+  </si>
+  <si>
+    <t>Câu hỏi 48: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>Virut thông dịch (Interpreted virus) có khả năng lây lan còn Virut biên dịch (Complled virus) thì không</t>
+  </si>
+  <si>
+    <t>Virut biên dịch (Complled virus) có khả năng lây lan còn Virut thông dịch (Interpreted virus) thì không</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cả virut biên dịch (Compled virus) lẫn virut thông dịch (Interpreted virus) đều không có khả năng lây lan</t>
+  </si>
+  <si>
+    <t>  Cả virut biên dịch (Compled vrus) lẫn virut thông dịch (Interpreted virus) đều có khả năng lây lan</t>
+  </si>
+  <si>
+    <t>Câu hỏi 49: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>  Âm binh (Zombie) là một máy tính trên đó có nhiêu lỗ hổng phần mềm</t>
+  </si>
+  <si>
+    <t>Âm binh (Zombie) là một máy tính có thể được điều khiển ngầm bởi một máy tinh nào đó</t>
+  </si>
+  <si>
+    <t>Âm binh (Zombie) là một máy tính bình thưởng tham gia vảo mạng internet</t>
+  </si>
+  <si>
+    <t>Âm binh (Zombie) là một máy tính đã bị nhiễm virut</t>
+  </si>
+  <si>
+    <t>Câu hỏi 50: Bộ nhớ nảo không bị mất dữ liệu khi mất điện?</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>Cả 3 phương ăn còn tại đều đúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 1: Những chức năng của CPU:</t>
+  </si>
+  <si>
+    <t>Nhân lệnh, giải mã tênh và điều khiển các khối khác thực hiện lệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu hỏi 2: Chọn phương án có 3 định dạng file video phó biến hiện nay: </t>
+  </si>
+  <si>
+    <t>MP3, WMV, JPG</t>
+  </si>
+  <si>
+    <t>WMA, WMV, JPG</t>
+  </si>
+  <si>
+    <t>FWF, XLS, PDF</t>
+  </si>
+  <si>
+    <t>WMV, AVI, FLV</t>
+  </si>
+  <si>
+    <t>Câu hỏi 3: Khi đang làm việc với PowerPoint 2013, muốn thiết lập hiệu ứng cho văn bản, hình ảnh, ..., ta thực hiện:</t>
+  </si>
+  <si>
+    <t>View Custom Animation, rồi chọn Add Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vào Thẻ Animation chọn hiệu ứng cho đối tương</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insert - Custom Animation, rồi chọn Add Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Format-Custom Animation, rồi chọn Add Effect</t>
+  </si>
+  <si>
+    <t>Câu hỏi 4: Bộ nhớ nào không bị mất dữ liệu khi mất điện?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 5: Tin học nghiên cứu về:</t>
+  </si>
+  <si>
+    <t>Các phương pháp, công nghệ và các kỹ thuật xử lý dữ liệu một cách tự động</t>
+  </si>
+  <si>
+    <t>Các công nghệ và các kỹ thuật xử lý thông tin một cách tự động</t>
+  </si>
+  <si>
+    <t>Các phương pháp, công nghệ, các kỹ thuật xử lý thông tin một cách thủ công</t>
+  </si>
+  <si>
+    <t>Các phương pháp, công nghệ, các kỹ thuật xử lý thông tin một cách chủ động</t>
+  </si>
+  <si>
+    <t>Câu hỏi 6: Hãy chỉ ra các dịch vụ lưu trữ đám mây điển hình</t>
+  </si>
+  <si>
+    <t>Yahoo, Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cả 3 phương án còn lại đều đúng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu hỏi 7: Khói chức năng điều khiển sự hoạt động của máy tính theo chương trình định sẵn là: </t>
+  </si>
+  <si>
+    <t>Regester</t>
+  </si>
+  <si>
+    <t>Arithmetic Logic Unit (ALU)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 8: Địa chỉ IPv4 có độ dài bao nhiêu byte?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 9: Chọn phát biểu đúng nhất về hệ điều hành:</t>
+  </si>
+  <si>
+    <t>Là các chương trình máy tính trợ giúp người dùng để hỗ trợ các hoạt động cá nhân</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình phối hợp tất cả các hoạt động của các thiết bị phần cứng, là phương tiện giúp người dùng giao tiếp với máy tính và các phần mềm khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các chương trình cho phép người dùng mực niên các công việc sên quan 101 việc bảo trì máy tính và các thiết bị, chương trình được cài đặt mọng này tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Là các chương trình máy tính cho phép kết nối máy tinh với internet</t>
+  </si>
+  <si>
+    <t>Câu hỏi 10: Các lệnh máy phải chỉ ra các thông tin:</t>
+  </si>
+  <si>
+    <t>Nơi đặt kết quả xử lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thao tác cần thực hiện</t>
+  </si>
+  <si>
+    <t>Câu hỏi 11: "WWW" trên địa chỉ trang web là:</t>
+  </si>
+  <si>
+    <t>World Wide Wait</t>
+  </si>
+  <si>
+    <t>Câu hỏi 12: Phát biểu nào dưới đây đúng?</t>
+  </si>
+  <si>
+    <t>Phần mềm quảng cáo (Adware) có thể tây lan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cửa hậu (Backdoor) chỉ có khả năng lây nhiễm giữa các tập tin trên cùng một máy tính</t>
+  </si>
+  <si>
+    <t>  Sầu (Worm) có khả năng lây nhiễm từ máy tính này sang máy tính khác trên mô trường mạng</t>
+  </si>
+  <si>
+    <t>Phần mềm gián điệp (Spyware) có khả năng lây nhiễm từ máy này sang máy khác</t>
+  </si>
+  <si>
+    <t>Câu hỏi 13: Xác minh và thẩm định phần mềm là gì?</t>
+  </si>
+  <si>
+    <t>Là giai đoạn liên quan tới việc chuyển những yêu cầu phần mềm thành những hệ thống có thể thực thi được</t>
+  </si>
+  <si>
+    <t>Là việc bảo trì phần mềm thông qua việc thực hiện chương trình, được tiến hành sau khi đã xây dựng được chương trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là việc mô tả cấu trúc của phần mềm được thực thị, dữ liệu của hệ thống, giao giáo tiếp giữa các thành phần, và đôi khi, đó là thuật toán sẽ được sử dụng </t>
+  </si>
+  <si>
+    <t>Là tên gọi chung của các hoạt động nhằm đảm bảo phần mềm được phát triển đúng theo đặc tả và đáp ứng tốt các yêu cầu người dùng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 14: Trong chế độ tạo bảng (Table) của phần mềm Mocrosoft Word 2013, muốn tách một ô thành nhiều ô, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Tools - Split Cells</t>
+  </si>
+  <si>
+    <t>Table - Merge Cells</t>
+  </si>
+  <si>
+    <t>Table-Cells</t>
+  </si>
+  <si>
+    <t>Câu hỏi 15: Nguyên tắc hoạt động của CPU là:</t>
+  </si>
+  <si>
+    <t>Hoạt động theo chương trình nằm trong bộ nhớ ngoài</t>
+  </si>
+  <si>
+    <t>Hoạt động theo chương trình nằm trong bộ nhớ cache</t>
+  </si>
+  <si>
+    <t>Hoạt động theo chương trình nằm trong bộ nhớ chính</t>
+  </si>
+  <si>
+    <t>Câu hỏi 16: Để mã hóa số ngày trong 1 tháng thì cần tối thiểu bao nhiêu bit?</t>
+  </si>
+  <si>
+    <t>7 bit</t>
+  </si>
+  <si>
+    <t>5 bit</t>
+  </si>
+  <si>
+    <t>3 bit</t>
+  </si>
+  <si>
+    <t>9 bit</t>
+  </si>
+  <si>
+    <t>Câu hỏi 17: Trong soạn thảo Winword 2013, muốn định dạng lại trang giấy in, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Layout - Page Setup</t>
+  </si>
+  <si>
+    <t>File - Print Preview</t>
+  </si>
+  <si>
+    <t>File - Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File - Print </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu hỏi 18: Nhận định nào sau đây là đúng? </t>
+  </si>
+  <si>
+    <t>Khi chuyển một tệp hoặc thư mục sang một thư mục mới, tệp hoặc thư mục này sẽ có trong cả thư mục mới và thư mục cũ</t>
+  </si>
+  <si>
+    <t>Khi chuyển một tệp hoặc thư mục sang một thư mục mới, tệp này vẫn giữ nguyên trong thư mục cũ</t>
+  </si>
+  <si>
+    <t>Khi chuyển một tệp hoặc thư mục sang một thư mục mới, tệp này chỉ tồn tại trong mục mới</t>
+  </si>
+  <si>
+    <t>Tất cả các nhân định còn lại đều đúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 19: Đề trình diễn một Slide trong PowerPoint, ta bấm:</t>
+  </si>
+  <si>
+    <t>Phím F10</t>
+  </si>
+  <si>
+    <t>Phím F1</t>
+  </si>
+  <si>
+    <t>Phím F3</t>
+  </si>
+  <si>
+    <t>Phím F5</t>
+  </si>
+  <si>
+    <t>Câu hỏi 20: Quy mô của mạng máy tinh tăng dản theo thứ tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAN &lt; MAN &lt; VAN &lt; WAN ≤ Internet</t>
+  </si>
+  <si>
+    <t>LAN &lt; VAN &lt; WAN &lt; MAN ≤ Internet</t>
+  </si>
+  <si>
+    <t>LAN &lt; MAN &lt; WAN &lt; VAN ≤ Internet</t>
+  </si>
+  <si>
+    <t>LAN &lt; WAN &lt; MAN &lt; VAN ≤ Internet</t>
+  </si>
+  <si>
+    <t>Câu hỏi 21: Cho phép toán : 1+1=10. Học sinh cấp 1: Phép toán trên bị sai. Sinh viên đại học: Phép toán trên đúng.</t>
+  </si>
+  <si>
+    <t>Cả hai nhận xét đều đúng</t>
+  </si>
+  <si>
+    <t>Nhận xét của học sinh cấp 1 đúng, sinh viên đại học sai</t>
+  </si>
+  <si>
+    <t>Nhận xét của học sinh cấp 1 sai, sinh viên đại học đúng</t>
+  </si>
+  <si>
+    <t>Không thể khẳng định khi không rõ hệ đếm.</t>
+  </si>
+  <si>
+    <t>Câu hỏi 22: Thành phần dùng để trao đổi dữ liệu giữa máy tinh và môi trường bên ngoài là:</t>
+  </si>
+  <si>
+    <t>Câu hỏi 23: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>Tấn công làm ngập lụt (Flooding attack) là hình thức tấn công từ chối dịch vụ dựa trên việc khai thác lỗ hổng trên máy chủ nạn nhân</t>
+  </si>
+  <si>
+    <t>Tần công làm ngập lụt (Flooding attack) là hình thức tấn công từ chối dịch vụ bằng cách gửi các yêu cầu không hợp lệ tới máy chủ nạn nhân</t>
+  </si>
+  <si>
+    <t>Tấn công làm ngập lụt (Flooding attack) là hình thức tấn công từ chối dịch cách khai thác những lỗ hỗng bảo trên các giao thức mạng</t>
+  </si>
+  <si>
+    <t>Tần công làm ngập lụt (Flooding attack) là hình thức tần công từ chối dịch cách gửi một lượng lớn các yêu cầu hợp lệ tới máy chủ nạn nhân</t>
+  </si>
+  <si>
+    <t>Câu hỏi 24: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>Phần mềm gián điệp (Spyware) là loại sâu (worm) được sử dụng làm gián điệp tính nạn nhân</t>
+  </si>
+  <si>
+    <t>Phần mềm gián điệp (Spyware) là loại virut được sử giản điệp trên máy tính nạn nhân</t>
+  </si>
+  <si>
+    <t>Phần mềm gián điệp (Spyware) là loại Trojan được sử dụng làm giản điệp trên máy tinh nan nhân</t>
+  </si>
+  <si>
+    <t>Phần mềm gián điệp (Spyware) là loại virut macro (Macro virus) được sử dụng lảm gián điệp trên máy tinh nan nhân</t>
+  </si>
+  <si>
+    <t>Câu hỏi 25: Byte đầu tiên của một địa chỉ IP là 10000011. Vậy nó thuộc lớp nào?</t>
+  </si>
+  <si>
+    <t>Lớp B</t>
+  </si>
+  <si>
+    <t>Câu hỏi 26: Trong khi làm việc với Word, tổ hợp phim tắt nảo cho phép chọn tất cả văn bản đang soạn thảo:</t>
+  </si>
+  <si>
+    <t>Cirl + F</t>
+  </si>
+  <si>
+    <t>Ctl + A</t>
+  </si>
+  <si>
+    <t>Câu hỏi 27: Quy định nào dưới đây đối với phần mềm mã nguồn mở là đúng?</t>
+  </si>
+  <si>
+    <t>Tác giả gốc giữ bản quyền về phần mềm nhưng cho phép người dùng có thể tim hiếu, phát triển công bồ và khai thác thương mai sản phẩm</t>
+  </si>
+  <si>
+    <t>Tác giả gốc giữ bản quyên phần mềm, mọi thay đổi và sử dụng đối với phần mềm đều phải được phép của tác giả</t>
+  </si>
+  <si>
+    <t>Phần mềm nguồn mở được sử dụng vào muc đích thương mai nhưng phải giữ nguyên mã nguồn ban đầu</t>
+  </si>
+  <si>
+    <t>Phần mềm nguồn mở chỉ được dùng vảo mục đích học tập và nghiên cứu, không được sử dụng cho các mục đích thương mại</t>
+  </si>
+  <si>
+    <t>Câu hỏi 28: Phần mềm quảng cáo (Adware) thuộc vào loại nào?</t>
+  </si>
+  <si>
+    <t>Câu hỏi 29: Phần mềm thực hiện các chức năng của nó bằng cách nào?</t>
+  </si>
+  <si>
+    <t>Tập hợp các câu lệnh hoặc chỉ thị lệnh được viết bằng nhiều ngôn ngữ lập trình khác nhau</t>
+  </si>
+  <si>
+    <t>Người dùng nhấn chuột trái vào phần mềm để khởi động chương trình cần thực thi</t>
+  </si>
+  <si>
+    <t>Gửi các chỉ thị trực tiếp đến phần cứng máy tính hoặc cung cấp dữ liêu đề phục vụ các chương trình hay phần mềm khác</t>
+  </si>
+  <si>
+    <t>Người dùng có thể dùng chuột lưa chọn các biểu tương để thực hiện các lệnh</t>
+  </si>
+  <si>
+    <t>Câu hỏi 30: Website là gì?</t>
+  </si>
+  <si>
+    <t>Tất cà các phương án còn lại đều sai</t>
+  </si>
+  <si>
+    <t>Là các file đã được tạo ra từ MS Word, Excel, Powerpoint… rồi chuyển sang dạng HTML</t>
+  </si>
+  <si>
+    <t>Câu hỏi 31: Virut Macro (Macro virus) thuộc vào loại nào?</t>
+  </si>
+  <si>
+    <t>Virut biên dịch (Compiled Vitus)</t>
+  </si>
+  <si>
+    <t>Virut Thông dịch (Interpreted Virus)</t>
+  </si>
+  <si>
+    <t>Phân mềm quảng cảo (Adware)</t>
+  </si>
+  <si>
+    <t>Phần mềm giản điệp (Spyware)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 32: World Wide Web là gi?</t>
+  </si>
+  <si>
+    <t>Là một hệ thống các máy chủ cung cấp thông tin đên bất kỳ máy tính nào trên Internet có yêu cầu</t>
+  </si>
+  <si>
+    <t>Là một dịch vụ của Internet</t>
+  </si>
+  <si>
+    <t>Là máy dùng để đặt các trang Web trên Internet</t>
+  </si>
+  <si>
+    <t>Tất cả các phương án còn lại đều dúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 33: Các khe cẩm mở rộng trên mainboard có thể dùng cho loại card điều khiến thiết bị vào-ra nào?</t>
+  </si>
+  <si>
+    <t>Modem</t>
+  </si>
+  <si>
+    <t>Card âm thanh</t>
+  </si>
+  <si>
+    <t>Card đồ họa</t>
+  </si>
+  <si>
+    <t>Tất cả các loại nêu trong 3 phương án còn lại</t>
+  </si>
+  <si>
+    <t>Câu hỏi 34: Khi dang trình diễn trong PowerPoint, muốn kết thúc phiên trình diễn, ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Nháy phải chuột, rồi chọn Exit</t>
+  </si>
+  <si>
+    <t>Nháy phải chuột, rồi chon Return</t>
+  </si>
+  <si>
+    <t>Nháy phải chuột, rỗi chọn Screen</t>
+  </si>
+  <si>
+    <t>Nháy phải chuốt, rồi chon End Show</t>
+  </si>
+  <si>
+    <t>Câu hỏi 35: Ưu điểm của dịch vụ lưu trữ đám máy?</t>
+  </si>
+  <si>
+    <t>Giảm thiểu rủi ro mất mát, hư hỏng dữ liệu đôi khi xảy ra, nều sử dụng các biện pháp lưu trữ truyền thống, như ổ cứng, ổ cứng di động USB, hay đĩa DVD, CD</t>
+  </si>
+  <si>
+    <t>Không còn lệ thuộc vào các thiết bị lưu trữ vật lý như đĩa nhỏ, GD.</t>
+  </si>
+  <si>
+    <t>Có thể truy cập ở mọi nơi có Internet:</t>
+  </si>
+  <si>
+    <t>Cả 3 phương ản còn lại đều đúng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 36: Thiết bị nhớ có tốc độ nhanh nhất là:</t>
+  </si>
+  <si>
+    <t>Bộ nhớ chính (RAM)</t>
+  </si>
+  <si>
+    <t>Đĩa cứng</t>
+  </si>
+  <si>
+    <t>Thanh ghi (Register)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 37: Phản mềm hệ thống là gì?</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình cho phép người dùng thực hiện các công việc kiểm thử phần mềm</t>
+  </si>
+  <si>
+    <t>Là các chương trình điều khiến hoặc duy trì các hoạt động của máy tính và các thiết bị liền quan</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình phối hợp tất cà các hoại động của các thiết bị phần cứng</t>
+  </si>
+  <si>
+    <t>Là một tập các chương trình phục vụ các tác vụ của ngưới dùng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 38: Để gõ được tiềng Việt theo bảng mã Unicode trên Windows, thì bạn:</t>
+  </si>
+  <si>
+    <t>Cần cài đặt bảng mã Unicode nêu như bản Windows của bạn chưa được cài đặt</t>
+  </si>
+  <si>
+    <t>Ô cần cài đặt phần mềm gõ tiềng Việt như Unikey</t>
+  </si>
+  <si>
+    <t>Cần cài đặt font .Vn Time hoặc VNI hoặc các tont tương tư</t>
+  </si>
+  <si>
+    <t>Câu hỏi 39: Hệ thống tên miền được tố chức theo</t>
+  </si>
+  <si>
+    <t>Không có tổ chức rõ ràng</t>
+  </si>
+  <si>
+    <t>Ngang hàng</t>
+  </si>
+  <si>
+    <t>Theo dạng hình sao</t>
+  </si>
+  <si>
+    <t>Phân cấp hình cây</t>
+  </si>
+  <si>
+    <t>Câu hỏi 40: Tìm phát biểu SAI:</t>
+  </si>
+  <si>
+    <t>Cache cho phép CPU truy nhập dữ liệu nhanh</t>
+  </si>
+  <si>
+    <t>Cache đệm giữa CPU và bộ nhớ chính</t>
+  </si>
+  <si>
+    <t>Cache có tốc độ tháp</t>
+  </si>
+  <si>
+    <t>Cache thường đặt trên chịp của CPU</t>
+  </si>
+  <si>
+    <t>Câu hỏi 41: Chọn phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>Trojan là một viut biên dịch (compiled virus) có nhiệm vụ như một gián điệp</t>
+  </si>
+  <si>
+    <t>Trojan là một phân mềm độc hại không có khả năng lây nhiễm</t>
+  </si>
+  <si>
+    <t>Trojan là một loại virut núp bóng một phần mềm có ích</t>
+  </si>
+  <si>
+    <t>Trojan bản chất là một loại sâu (worm).</t>
+  </si>
+  <si>
+    <t>Câu hỏi 42: Trong soạn thảo văn bản Word, muón tất dánh dầu chọn khối văn bản (tô den), ta thực hiện:</t>
+  </si>
+  <si>
+    <t>Bấm phím Space</t>
+  </si>
+  <si>
+    <t>Bẩm phím mũi tên di chuyển</t>
+  </si>
+  <si>
+    <t>Bẩm phím Tab</t>
+  </si>
+  <si>
+    <t>Bẩm phím Enter</t>
+  </si>
+  <si>
+    <t>Câu hỏi 43: Người ta có thế dùng một thanh ghi 8 bịt cho một biến để lưu các sổ nguyên không âm. Thanh ghi này đang lưu số nguyên nào nếu nó đang ở trạng thái: 0001 1011?</t>
+  </si>
+  <si>
+    <t>Trạng thái này không lưu số nguyên nào cả</t>
+  </si>
+  <si>
+    <t>Câu hỏi 44: Hoạt động thiết kể phần mềm là gi?</t>
+  </si>
+  <si>
+    <t>Là giai đoạn liên quan tới việc chuyến những yêu cầu phần mềm thành những hệ thống có thể thưc thi được.</t>
+  </si>
+  <si>
+    <t>Là các hoạt động nhằm đảm bảo phần mềm được phát triển đúng theo đặc tả và đáp ứng tốt các yêu cầu người dùng.</t>
+  </si>
+  <si>
+    <t>Là việc kiểm tra thông qua việc thực hiện chương trình, được tiền hành sau khi đã xây dựng được chương trình.</t>
+  </si>
+  <si>
+    <t>Là việc mô tả cầu trúc của phần mềm được thực thi, dữ liệu của hệ thống, giao diện giao tiếp giữa các thành phần, và đôi khi, đó là thuật toán sẽ được sử dụng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 45: Trong chương trình quản lý tệp và thư mục Windows Explorer, muốn đổi tên một tệp cần thực hiện các thao tác gì?</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần đổi tên/ chọn Delete</t>
+  </si>
+  <si>
+    <t>Nhấn chuột phải vào tệp cần đổi tên/ chọn Paste</t>
+  </si>
+  <si>
+    <t>Câu hỏi 46: Virut Script(Scripting virus) thuộc vào loại nào?</t>
+  </si>
+  <si>
+    <t>Phần mềm quảng cảo (Adware)</t>
+  </si>
+  <si>
+    <t>Virut Macro (Macro virus)</t>
+  </si>
+  <si>
+    <t>Virut Thông dịch(Interpreted virus)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 47: Rootkit thuộc vào loại nào?</t>
+  </si>
+  <si>
+    <t>Virut biên dịch (Complied virus)</t>
+  </si>
+  <si>
+    <t>Câu hỏi 48: Chuyển số 15 từ hệ 10 sang hệ 2:</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Câu hỏi 49: Trong chế độ tạo bảng (Table) của phần mềm Winword 2013, để gộp nhiều ô thánh một ô, ta thực hiện: Chọn các ô cản gộp, rồi chọn menu lệnh:</t>
+  </si>
+  <si>
+    <t>Thẻ Layout - Merge Cells</t>
+  </si>
+  <si>
+    <t>Tools - Merge cells</t>
+  </si>
+  <si>
+    <t>Table - Split Cells</t>
+  </si>
+  <si>
+    <t>Câu hỏi 50: Chọn phương ản có 3 định dạng file âm thanh phố biến hiện nay:</t>
+  </si>
+  <si>
+    <t>MP3, PDF. WAV</t>
+  </si>
+  <si>
+    <t>MP3. GIF. PPTX</t>
+  </si>
+  <si>
+    <t>MP3, WMA, WAV</t>
+  </si>
+  <si>
+    <t>MP3. GIF, AVI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +1352,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,13 +1384,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,13 +1715,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B91A3F8-A511-4DE5-908B-9C6E1D5E1B57}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -472,30 +1753,2352 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="187.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="225" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="243.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="300" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10010</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10110</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="337.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="337.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="206.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="337.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="206.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>101010</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>302</v>
+      </c>
+      <c r="D42" s="2">
+        <v>110010</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="2">
+        <v>32</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="393.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="262.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="337.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="300" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="206.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="225" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="300" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="337.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="393.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="375" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="393.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="375" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="262.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="300" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="131.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="225" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="243.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" s="2">
+        <v>26</v>
+      </c>
+      <c r="F96" s="2">
+        <v>28</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1111</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1110</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1011</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>